--- a/GGFPortal/ExcelUpLoad/Salse/包裝.xlsx
+++ b/GGFPortal/ExcelUpLoad/Salse/包裝.xlsx
@@ -24,48 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
-  <si>
-    <r>
-      <t>每月平均成本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>USD1,200,000 / 26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> / 10.5H</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>部門</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,107 +46,107 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>訂單數量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 组生产量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>訂單交期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">上線日期  </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1人8H標準產量 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>實際工作人數</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工時</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>總工時</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">今日目標產量 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>今日產量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>前一天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 累計量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>正負數量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">組各別效率    </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">組效率    </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>返修率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>顏色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>今日各組成本</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">今日生產成本/DZ </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>工繳收入/DZ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">今日工繳收入/DZ </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>今日生產損益 USD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>(CM-COST)/CM 損 益 %</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>損益累積</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
@@ -330,9 +296,9 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,12 +346,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -490,73 +450,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -846,269 +806,265 @@
   <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="19" max="19" width="9" style="25"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="36.75">
+      <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="3" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" s="17" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:28">
+      <c r="A4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" s="19" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
       <c r="D6">
         <v>26239</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>42797</v>
       </c>
       <c r="H6">
         <v>686</v>
       </c>
       <c r="I6">
-        <f>K6/J6</f>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>11.5</v>
       </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
       <c r="L6">
         <f>H6/8*I6*J6</f>
-        <v>8574.9999999999982</v>
+        <v>21694.75</v>
       </c>
       <c r="M6">
         <v>1400</v>
@@ -1119,49 +1075,42 @@
       <c r="O6">
         <v>25080</v>
       </c>
-      <c r="P6">
-        <f>O6-D6</f>
-        <v>-1159</v>
-      </c>
-      <c r="S6" s="25">
-        <v>0.43683025049484675</v>
+      <c r="R6" s="23">
+        <f>M6/L6</f>
+        <v>6.4531741550375096E-2</v>
       </c>
       <c r="T6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
       <c r="D7">
         <v>55101</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>42798</v>
       </c>
       <c r="H7">
         <v>686</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I14" si="0">K7/J7</f>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <v>11.5</v>
       </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
       <c r="L7">
-        <f t="shared" ref="L7:L14" si="1">H7/8*I7*J7</f>
-        <v>8574.9999999999982</v>
+        <f t="shared" ref="L7:L14" si="0">H7/8*I7*J7</f>
+        <v>21694.75</v>
       </c>
       <c r="M7">
         <v>1781</v>
@@ -1172,49 +1121,42 @@
       <c r="O7">
         <v>25080</v>
       </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P14" si="2">O7-D7</f>
-        <v>-30021</v>
-      </c>
-      <c r="S7" s="25">
-        <v>0.1735620191698275</v>
+      <c r="R7" s="23">
+        <f t="shared" ref="R7:R14" si="1">M7/L7</f>
+        <v>8.2093594072298604E-2</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>5303</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>42799</v>
       </c>
       <c r="H8">
         <v>686</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J8">
         <v>11.5</v>
       </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
       <c r="L8">
-        <f t="shared" si="1"/>
-        <v>8574.9999999999982</v>
+        <f t="shared" si="0"/>
+        <v>21694.75</v>
       </c>
       <c r="M8">
         <v>656</v>
@@ -1225,49 +1167,42 @@
       <c r="O8">
         <v>18810</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>13507</v>
-      </c>
-      <c r="S8" s="25">
-        <v>3.0734128338387432E-2</v>
+      <c r="R8" s="23">
+        <f t="shared" si="1"/>
+        <v>3.023773032646147E-2</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>6040</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>42800</v>
       </c>
       <c r="H9">
         <v>686</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>11.5</v>
       </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
       <c r="L9">
-        <f t="shared" si="1"/>
-        <v>8574.9999999999982</v>
+        <f t="shared" si="0"/>
+        <v>21694.75</v>
       </c>
       <c r="M9">
         <v>30</v>
@@ -1278,49 +1213,42 @@
       <c r="O9">
         <v>18810</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>12770</v>
-      </c>
-      <c r="S9" s="25">
-        <v>2.9876068917772555E-2</v>
+      <c r="R9" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3828230332223234E-3</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
       <c r="D10">
         <v>1952</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>42801</v>
       </c>
       <c r="H10">
         <v>1097</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J10">
         <v>11.5</v>
       </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>13712.5</v>
+        <f t="shared" si="0"/>
+        <v>34692.625</v>
       </c>
       <c r="M10">
         <v>2091</v>
@@ -1329,51 +1257,44 @@
         <v>900</v>
       </c>
       <c r="O10">
-        <v>20325.25</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>18373.25</v>
-      </c>
-      <c r="S10" s="25">
-        <v>4.3902037481364502E-2</v>
+        <v>20325</v>
+      </c>
+      <c r="R10" s="23">
+        <f t="shared" si="1"/>
+        <v>6.0272176002824807E-2</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
       </c>
       <c r="D11">
         <v>208</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>42802</v>
       </c>
       <c r="H11">
         <v>576</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <v>11.5</v>
       </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
       <c r="L11">
-        <f t="shared" si="1"/>
-        <v>7200</v>
+        <f t="shared" si="0"/>
+        <v>18216</v>
       </c>
       <c r="M11">
         <v>756</v>
@@ -1382,51 +1303,44 @@
         <v>192</v>
       </c>
       <c r="O11">
-        <v>28659.125</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>28451.125</v>
-      </c>
-      <c r="S11" s="25">
-        <v>1.7837235228539576E-2</v>
+        <v>28659</v>
+      </c>
+      <c r="R11" s="23">
+        <f t="shared" si="1"/>
+        <v>4.1501976284584984E-2</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>4682</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>42803</v>
       </c>
       <c r="H12">
         <v>524</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <v>11.5</v>
       </c>
-      <c r="K12">
-        <v>100</v>
-      </c>
       <c r="L12">
-        <f t="shared" si="1"/>
-        <v>6550</v>
+        <f t="shared" si="0"/>
+        <v>16571.5</v>
       </c>
       <c r="M12">
         <v>190</v>
@@ -1435,51 +1349,44 @@
         <v>911</v>
       </c>
       <c r="O12">
-        <v>11939.125</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>7257.125</v>
-      </c>
-      <c r="S12" s="25">
-        <v>9.3032755495417299E-2</v>
+        <v>11939</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" si="1"/>
+        <v>1.146546782125939E-2</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>3063</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>42804</v>
       </c>
       <c r="H13">
         <v>524</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <v>11.5</v>
       </c>
-      <c r="K13">
-        <v>100</v>
-      </c>
       <c r="L13">
-        <f t="shared" si="1"/>
-        <v>6550</v>
+        <f t="shared" si="0"/>
+        <v>16571.5</v>
       </c>
       <c r="M13">
         <v>158</v>
@@ -1488,51 +1395,44 @@
         <v>644</v>
       </c>
       <c r="O13">
-        <v>11939.125</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>8876.125</v>
-      </c>
-      <c r="S13" s="25">
-        <v>6.5766294773928355E-2</v>
+        <v>11939</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" si="1"/>
+        <v>9.5344416618893882E-3</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>107</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>42805</v>
       </c>
       <c r="H14">
         <v>524</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
+        <v>22</v>
       </c>
       <c r="J14">
         <v>11.5</v>
       </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
       <c r="L14">
-        <f t="shared" si="1"/>
-        <v>6550</v>
+        <f t="shared" si="0"/>
+        <v>16571.5</v>
       </c>
       <c r="M14">
         <v>678</v>
@@ -1541,17 +1441,14 @@
         <v>95</v>
       </c>
       <c r="O14">
-        <v>14812.875</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>14705.875</v>
-      </c>
-      <c r="S14" s="25">
-        <v>9.7015496949117933E-3</v>
+        <v>14812</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="1"/>
+        <v>4.0913616751651935E-2</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1561,5 +1458,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>